--- a/Patterns.xlsx
+++ b/Patterns.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FRC\LED-Strip-Driver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlosj\Documents\FRC\FRC2018\LED Strips\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Pattern Number</t>
   </si>
@@ -69,6 +69,42 @@
   </si>
   <si>
     <t>Pink/green alternate slow</t>
+  </si>
+  <si>
+    <t>Rainbow chase in</t>
+  </si>
+  <si>
+    <t>Rainbow chase out</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Green solid</t>
+  </si>
+  <si>
+    <t>Green chase in</t>
+  </si>
+  <si>
+    <t>Green chase out</t>
+  </si>
+  <si>
+    <t>Pink solid</t>
+  </si>
+  <si>
+    <t>Pink chase in</t>
+  </si>
+  <si>
+    <t>Pink chase out</t>
+  </si>
+  <si>
+    <t>White solid</t>
+  </si>
+  <si>
+    <t>White chase in</t>
+  </si>
+  <si>
+    <t>White chase out</t>
   </si>
 </sst>
 </file>
@@ -423,13 +459,13 @@
   <dimension ref="A1:B257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -453,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -461,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,7 +505,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,7 +513,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -485,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -493,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,7 +545,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -517,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,7 +561,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -533,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -541,95 +577,131 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>

--- a/Patterns.xlsx
+++ b/Patterns.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FRC\LED-Strip-Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182FB396-90BA-452A-AB2C-05C02B37BADC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Pattern Number</t>
   </si>
@@ -69,12 +70,27 @@
   </si>
   <si>
     <t>Pink/green alternate slow</t>
+  </si>
+  <si>
+    <t>Green solid</t>
+  </si>
+  <si>
+    <t>Outgoing rainbow, slow</t>
+  </si>
+  <si>
+    <t>Outgoing rainbow, fast</t>
+  </si>
+  <si>
+    <t>Incoming rainbow, slow</t>
+  </si>
+  <si>
+    <t>Incoming rainbow, fast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,11 +435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -453,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -461,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -485,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -493,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,7 +517,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -517,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -533,7 +549,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -541,13 +557,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -634,82 +653,94 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1761,5 +1792,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Patterns.xlsx
+++ b/Patterns.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FRC\LED-Strip-Driver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlosj\Documents\FRC\FRC2018\LED Strips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182FB396-90BA-452A-AB2C-05C02B37BADC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,72 +24,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Pattern Number</t>
-  </si>
-  <si>
-    <t>Pattern Description</t>
-  </si>
-  <si>
-    <t>Green heartbeat</t>
-  </si>
-  <si>
-    <t>Rainbow</t>
-  </si>
-  <si>
-    <t>Pink/green fade</t>
-  </si>
-  <si>
-    <t>Pink/green heartbeat</t>
-  </si>
-  <si>
-    <t>Pink heartbeat</t>
-  </si>
-  <si>
-    <t>Slow green flash</t>
-  </si>
-  <si>
-    <t>Fast green flash</t>
-  </si>
-  <si>
-    <t>Slow red flash</t>
-  </si>
-  <si>
-    <t>Fast red flash</t>
-  </si>
-  <si>
-    <t>Slow pink flash</t>
-  </si>
-  <si>
-    <t>Fast pink flash</t>
-  </si>
-  <si>
-    <t>Pink/green alternate fast</t>
-  </si>
-  <si>
-    <t>Pink/green alternate slow</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Green solid</t>
   </si>
   <si>
-    <t>Outgoing rainbow, slow</t>
-  </si>
-  <si>
-    <t>Outgoing rainbow, fast</t>
-  </si>
-  <si>
-    <t>Incoming rainbow, slow</t>
-  </si>
-  <si>
-    <t>Incoming rainbow, fast</t>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Pink solid</t>
+  </si>
+  <si>
+    <t>Broken green</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Rainbow in space</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Red solid</t>
+  </si>
+  <si>
+    <t>Green heartbeat, slow</t>
+  </si>
+  <si>
+    <t>Pink heartbeat, slow</t>
+  </si>
+  <si>
+    <t>Red heartbeat, slow</t>
+  </si>
+  <si>
+    <t>Green heartbeat, fast</t>
+  </si>
+  <si>
+    <t>Pink heartbeat, fast</t>
+  </si>
+  <si>
+    <t>Red heartbeat, fast</t>
+  </si>
+  <si>
+    <t>Pink/green heartbeat, slow</t>
+  </si>
+  <si>
+    <t>Pink/green heartbeat, fast</t>
+  </si>
+  <si>
+    <t>Pink/green fade, slow</t>
+  </si>
+  <si>
+    <t>Pink/green fade, fast</t>
+  </si>
+  <si>
+    <t>Green flash, slow</t>
+  </si>
+  <si>
+    <t>Red flash, slow</t>
+  </si>
+  <si>
+    <t>Pink flash, slow</t>
+  </si>
+  <si>
+    <t>Green flash, fast</t>
+  </si>
+  <si>
+    <t>Red flash, fast</t>
+  </si>
+  <si>
+    <t>Pink flash, fast</t>
+  </si>
+  <si>
+    <t>Rainbow in time, slow</t>
+  </si>
+  <si>
+    <t>Rainbow in time, fast</t>
+  </si>
+  <si>
+    <t>Broken green chase out, slow</t>
+  </si>
+  <si>
+    <t>Broken green chase out, fast</t>
+  </si>
+  <si>
+    <t>Broken green chase in, slow</t>
+  </si>
+  <si>
+    <t>Broken green chase in, fast</t>
+  </si>
+  <si>
+    <t>Broken pink chase out, slow</t>
+  </si>
+  <si>
+    <t>Broken pink chase out, fast</t>
+  </si>
+  <si>
+    <t>Broken pink chase in, slow</t>
+  </si>
+  <si>
+    <t>Broken pink chase in, fast</t>
+  </si>
+  <si>
+    <t>Broken pink</t>
+  </si>
+  <si>
+    <t>Rainbow in space chase out, slow</t>
+  </si>
+  <si>
+    <t>Rainbow in space chase out, fast</t>
+  </si>
+  <si>
+    <t>Rainbow in space chase in, slow</t>
+  </si>
+  <si>
+    <t>Rainbow in space chase in, fast</t>
+  </si>
+  <si>
+    <t>Broken pink/green</t>
+  </si>
+  <si>
+    <t>, chase out, slow</t>
+  </si>
+  <si>
+    <t>, chase out, fast</t>
+  </si>
+  <si>
+    <t>, chase in, slow</t>
+  </si>
+  <si>
+    <t>, chase in, fast</t>
+  </si>
+  <si>
+    <t>Broken pink/green, chase out, slow</t>
+  </si>
+  <si>
+    <t>Broken pink/green, chase out, fast</t>
+  </si>
+  <si>
+    <t>Broken pink/green, chase in, slow</t>
+  </si>
+  <si>
+    <t>Broken pink/green, chase in, fast</t>
+  </si>
+  <si>
+    <t>AC 1.0</t>
+  </si>
+  <si>
+    <t>Pink/green alternate, slow</t>
+  </si>
+  <si>
+    <t>Pink/green alternate, fast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,12 +192,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,14 +224,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -435,392 +549,510 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B257"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1145,82 +1377,83 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
